--- a/biology/Zoologie/Hysterochelifer_meridianus/Hysterochelifer_meridianus.xlsx
+++ b/biology/Zoologie/Hysterochelifer_meridianus/Hysterochelifer_meridianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hysterochelifer meridianus est une espèce de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Tunisie, en Algérie, au Maroc, en Espagne, en France, en Italie, en Autriche, en Roumanie, en Bulgarie, en Macédoine du Nord, en Grèce, en Turquie, en Géorgie, en Azerbaïdjan, au Turkménistan, en Ouzbékistan et au Kazakhstan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Tunisie, en Algérie, au Maroc, en Espagne, en France, en Italie, en Autriche, en Roumanie, en Bulgarie, en Macédoine du Nord, en Grèce, en Turquie, en Géorgie, en Azerbaïdjan, au Turkménistan, en Ouzbékistan et au Kazakhstan.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L. Koch, 1873 : Uebersichtliche Dartstellung der Europäischen Chernetiden (Pseudoscorpione). Bauer und Raspe: Nürnberg (texte intégral).</t>
         </is>
